--- a/Comp Sci IA Admin List.xlsx
+++ b/Comp Sci IA Admin List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityaharish/Documents/Documents/Subjects/CompSci/G11/Computer-Science-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{566443FC-D35C-EA41-B80A-15C4DAE7E66F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153B242F-F11F-9546-BBD5-4DF8327743A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{C5792EC5-23D5-1C42-A5CF-AA9B5D9D1469}"/>
+    <workbookView xWindow="8040" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{C5792EC5-23D5-1C42-A5CF-AA9B5D9D1469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Teacher Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Simon Dench</t>
+  </si>
+  <si>
+    <t>Lavin-Peter</t>
+  </si>
+  <si>
+    <t>Buckland-Brough</t>
+  </si>
+  <si>
+    <t>Phillip Riordan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +403,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C2124A-76F5-F041-89C8-769AF9729E22}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>174123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>174124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>174125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>174126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>